--- a/medicine/Psychotrope/Glückauf-Brauerei/Glückauf-Brauerei.xlsx
+++ b/medicine/Psychotrope/Glückauf-Brauerei/Glückauf-Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gl%C3%BCckauf-Brauerei</t>
+          <t>Glückauf-Brauerei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glückauf-Brauerei GmbH est une brasserie à Gersdorf.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gl%C3%BCckauf-Brauerei</t>
+          <t>Glückauf-Brauerei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1880, Richard Hübsch, le fils d'un aubergiste, fonde la brasserie. Avec 6 employés au début, 3 000 hectolitres de bière sont brassés chaque année dans une ancienne usine de chaussettes. Des années 1890 jusqu'à la Première Guerre mondiale, la brasserie est largement agrandie et modernisée, y compris une salle de brasserie, une chaufferie et une salle des machines et une cave de stockage et de fermentation sont construites et agrandies pour le maltage. La production annuelle augmenté à 3 000 hl.
 Avec l'ouverture de la ligne de Hohenstein-Ernstthal à Oelsnitz, l'usine bénéficie d'une bifurcation. En 1924, la brasserie est affiliée au groupe Felsenkeller jusqu'à l'expropriation en 1946. En janvier 1949, la brasserie Glückauf devient une entreprise publique.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gl%C3%BCckauf-Brauerei</t>
+          <t>Glückauf-Brauerei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bière :
 Glückauf Pilsener
